--- a/Data/aearep-414/candidatepackages.xlsx
+++ b/Data/aearep-414/candidatepackages.xlsx
@@ -124,7 +124,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -136,10 +136,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>1838</v>
       </c>
       <c r="C4">
-        <v>0.66312998533248901</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D4"/>
     </row>
